--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.67123081261189</v>
+        <v>13.69437566666667</v>
       </c>
       <c r="N2">
-        <v>3.67123081261189</v>
+        <v>41.083127</v>
       </c>
       <c r="O2">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="P2">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="Q2">
-        <v>533.5872078208517</v>
+        <v>2223.956981120573</v>
       </c>
       <c r="R2">
-        <v>533.5872078208517</v>
+        <v>20015.61283008516</v>
       </c>
       <c r="S2">
-        <v>0.2807745514501394</v>
+        <v>0.2527940559544053</v>
       </c>
       <c r="T2">
-        <v>0.2807745514501394</v>
+        <v>0.2527940559544053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.25912055477803</v>
+        <v>2.346919</v>
       </c>
       <c r="N3">
-        <v>1.25912055477803</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O3">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="P3">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="Q3">
-        <v>183.0041899914933</v>
+        <v>381.137995715943</v>
       </c>
       <c r="R3">
-        <v>183.0041899914933</v>
+        <v>3430.241961443487</v>
       </c>
       <c r="S3">
-        <v>0.0962971349485745</v>
+        <v>0.04332341885804775</v>
       </c>
       <c r="T3">
-        <v>0.0962971349485745</v>
+        <v>0.04332341885804775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.67123081261189</v>
+        <v>3.811587333333333</v>
       </c>
       <c r="N4">
-        <v>3.67123081261189</v>
+        <v>11.434762</v>
       </c>
       <c r="O4">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="P4">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="Q4">
-        <v>240.0440948637751</v>
+        <v>618.9991033874379</v>
       </c>
       <c r="R4">
-        <v>240.0440948637751</v>
+        <v>5570.991930486941</v>
       </c>
       <c r="S4">
-        <v>0.1263116358034199</v>
+        <v>0.07036075576363278</v>
       </c>
       <c r="T4">
-        <v>0.1263116358034199</v>
+        <v>0.07036075576363277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.25912055477803</v>
+        <v>1.330408333333333</v>
       </c>
       <c r="N5">
-        <v>1.25912055477803</v>
+        <v>3.991225</v>
       </c>
       <c r="O5">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="P5">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="Q5">
-        <v>82.32782663998053</v>
+        <v>216.057378056275</v>
       </c>
       <c r="R5">
-        <v>82.32782663998053</v>
+        <v>1944.516402506475</v>
       </c>
       <c r="S5">
-        <v>0.04332105091332374</v>
+        <v>0.02455893768691514</v>
       </c>
       <c r="T5">
-        <v>0.04332105091332374</v>
+        <v>0.02455893768691514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.67123081261189</v>
+        <v>13.69437566666667</v>
       </c>
       <c r="N6">
-        <v>3.67123081261189</v>
+        <v>41.083127</v>
       </c>
       <c r="O6">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="P6">
-        <v>0.744618494514196</v>
+        <v>0.6464706592402053</v>
       </c>
       <c r="Q6">
-        <v>416.8946213332311</v>
+        <v>895.8499668686599</v>
       </c>
       <c r="R6">
-        <v>416.8946213332311</v>
+        <v>8062.649701817939</v>
       </c>
       <c r="S6">
-        <v>0.2193707019042959</v>
+        <v>0.1018300032661784</v>
       </c>
       <c r="T6">
-        <v>0.2193707019042959</v>
+        <v>0.1018300032661784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.25912055477803</v>
+        <v>2.346919</v>
       </c>
       <c r="N7">
-        <v>1.25912055477803</v>
+        <v>7.040756999999999</v>
       </c>
       <c r="O7">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="P7">
-        <v>0.255381505485804</v>
+        <v>0.1107910510156661</v>
       </c>
       <c r="Q7">
-        <v>142.982180552037</v>
+        <v>153.5292560661287</v>
       </c>
       <c r="R7">
-        <v>142.982180552037</v>
+        <v>1381.763304595158</v>
       </c>
       <c r="S7">
-        <v>0.07523748137406563</v>
+        <v>0.01745145417743806</v>
       </c>
       <c r="T7">
-        <v>0.07523748137406563</v>
+        <v>0.01745145417743806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.1663210839279</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>61.1663210839279</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.67123081261189</v>
+        <v>3.811587333333333</v>
       </c>
       <c r="N8">
-        <v>3.67123081261189</v>
+        <v>11.434762</v>
       </c>
       <c r="O8">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="P8">
-        <v>0.744618494514196</v>
+        <v>0.17993367759944</v>
       </c>
       <c r="Q8">
-        <v>224.5556826574284</v>
+        <v>249.3439985435142</v>
       </c>
       <c r="R8">
-        <v>224.5556826574284</v>
+        <v>2244.095986891628</v>
       </c>
       <c r="S8">
-        <v>0.1181616053563408</v>
+        <v>0.02834258092885608</v>
       </c>
       <c r="T8">
-        <v>0.1181616053563408</v>
+        <v>0.02834258092885608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.1663210839279</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>61.1663210839279</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25912055477803</v>
+        <v>1.330408333333333</v>
       </c>
       <c r="N9">
-        <v>1.25912055477803</v>
+        <v>3.991225</v>
       </c>
       <c r="O9">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="P9">
-        <v>0.255381505485804</v>
+        <v>0.06280461214468869</v>
       </c>
       <c r="Q9">
-        <v>77.0157721369264</v>
+        <v>87.03180709723888</v>
       </c>
       <c r="R9">
-        <v>77.0157721369264</v>
+        <v>783.2862638751499</v>
       </c>
       <c r="S9">
-        <v>0.04052583824984011</v>
+        <v>0.00989278286402232</v>
       </c>
       <c r="T9">
-        <v>0.04052583824984011</v>
+        <v>0.00989278286402232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H10">
+        <v>378.92083</v>
+      </c>
+      <c r="I10">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J10">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>13.69437566666667</v>
+      </c>
+      <c r="N10">
+        <v>41.083127</v>
+      </c>
+      <c r="O10">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="P10">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="Q10">
+        <v>1729.694731315046</v>
+      </c>
+      <c r="R10">
+        <v>15567.25258183541</v>
+      </c>
+      <c r="S10">
+        <v>0.1966119625532404</v>
+      </c>
+      <c r="T10">
+        <v>0.1966119625532405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H11">
+        <v>378.92083</v>
+      </c>
+      <c r="I11">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J11">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.346919</v>
+      </c>
+      <c r="N11">
+        <v>7.040756999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="P11">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="Q11">
+        <v>296.4321651409233</v>
+      </c>
+      <c r="R11">
+        <v>2667.88948626831</v>
+      </c>
+      <c r="S11">
+        <v>0.03369502646744648</v>
+      </c>
+      <c r="T11">
+        <v>0.03369502646744649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H12">
+        <v>378.92083</v>
+      </c>
+      <c r="I12">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J12">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.811587333333333</v>
+      </c>
+      <c r="N12">
+        <v>11.434762</v>
+      </c>
+      <c r="O12">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="P12">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="Q12">
+        <v>481.4299453213844</v>
+      </c>
+      <c r="R12">
+        <v>4332.86950789246</v>
+      </c>
+      <c r="S12">
+        <v>0.05472346343425164</v>
+      </c>
+      <c r="T12">
+        <v>0.05472346343425164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H13">
+        <v>378.92083</v>
+      </c>
+      <c r="I13">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J13">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.330408333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.991225</v>
+      </c>
+      <c r="O13">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="P13">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="Q13">
+        <v>168.0398099685278</v>
+      </c>
+      <c r="R13">
+        <v>1512.35828971675</v>
+      </c>
+      <c r="S13">
+        <v>0.01910084839066795</v>
+      </c>
+      <c r="T13">
+        <v>0.01910084839066795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>61.180387</v>
+      </c>
+      <c r="H14">
+        <v>183.541161</v>
+      </c>
+      <c r="I14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J14">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>13.69437566666667</v>
+      </c>
+      <c r="N14">
+        <v>41.083127</v>
+      </c>
+      <c r="O14">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="P14">
+        <v>0.6464706592402053</v>
+      </c>
+      <c r="Q14">
+        <v>837.8272030100496</v>
+      </c>
+      <c r="R14">
+        <v>7540.444827090448</v>
+      </c>
+      <c r="S14">
+        <v>0.09523463746638121</v>
+      </c>
+      <c r="T14">
+        <v>0.09523463746638124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>61.180387</v>
+      </c>
+      <c r="H15">
+        <v>183.541161</v>
+      </c>
+      <c r="I15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J15">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.346919</v>
+      </c>
+      <c r="N15">
+        <v>7.040756999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="P15">
+        <v>0.1107910510156661</v>
+      </c>
+      <c r="Q15">
+        <v>143.585412677653</v>
+      </c>
+      <c r="R15">
+        <v>1292.268714098877</v>
+      </c>
+      <c r="S15">
+        <v>0.01632115151273382</v>
+      </c>
+      <c r="T15">
+        <v>0.01632115151273382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>61.180387</v>
+      </c>
+      <c r="H16">
+        <v>183.541161</v>
+      </c>
+      <c r="I16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J16">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.811587333333333</v>
+      </c>
+      <c r="N16">
+        <v>11.434762</v>
+      </c>
+      <c r="O16">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="P16">
+        <v>0.17993367759944</v>
+      </c>
+      <c r="Q16">
+        <v>233.1943881376313</v>
+      </c>
+      <c r="R16">
+        <v>2098.749493238682</v>
+      </c>
+      <c r="S16">
+        <v>0.02650687747269949</v>
+      </c>
+      <c r="T16">
+        <v>0.02650687747269949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>61.180387</v>
+      </c>
+      <c r="H17">
+        <v>183.541161</v>
+      </c>
+      <c r="I17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J17">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.330408333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.991225</v>
+      </c>
+      <c r="O17">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="P17">
+        <v>0.06280461214468869</v>
+      </c>
+      <c r="Q17">
+        <v>81.39489670135832</v>
+      </c>
+      <c r="R17">
+        <v>732.5540703122249</v>
+      </c>
+      <c r="S17">
+        <v>0.009252043203083281</v>
+      </c>
+      <c r="T17">
+        <v>0.009252043203083283</v>
       </c>
     </row>
   </sheetData>
